--- a/Excel New/40 useful formula tut.xlsx
+++ b/Excel New/40 useful formula tut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuntal\Desktop\data-analysis\Excel New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4882B4A-1607-44AA-914F-074AB6612519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0957621-7DE5-43D9-9316-13AA63157285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EBFE3E55-01F4-400A-9722-A1B89D90A08A}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{EBFE3E55-01F4-400A-9722-A1B89D90A08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -710,17 +715,288 @@
   <si>
     <t>ABI SHARMA</t>
   </si>
+  <si>
+    <t>For a cleaner text, wrap the formula inside TRIM().</t>
+  </si>
+  <si>
+    <t>The Best Way to Remove Non-Printable Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =TRIM(SUBSTITUTE(CLEAN(&lt;cell&gt;),CHAR(160),""))</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power Query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For large datasets or more complex cleaning, Power Query is a powerful tool.
+Select your data and go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+In the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Get &amp; Transform Data" group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>From Table/Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Power Query Editor will open.
+Select the column you want to clean.
+----------------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Using Power Query to Remove Characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If you want to use the automated tools within Power Query for data cleansing:
+Select your data range.
+Go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data tab on the main Excel ribbon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>From Table/Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" in the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Get &amp; Transform Data" group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This opens the Power Query Editor window.
+In the Power Query Editor, select the column you wish to clean.
+Go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transform tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+In the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text Column" group, click the Format dropdown menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Here, you will see options like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Trim" and "Clean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trim: Removes leading and trailing whitespaces.
+Clean: Removes non-printable characters.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="#&quot; Kg&quot;"/>
-    <numFmt numFmtId="173" formatCode="&quot;Rs &quot;#"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="#&quot; Kg&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rs &quot;#"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -766,6 +1042,47 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -907,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -924,39 +1241,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,62 +1263,92 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,40 +1356,6 @@
   <dxfs count="11">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1190,19 +1483,53 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <top style="thin">
+        <right style="thin">
           <color indexed="64"/>
-        </top>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1219,18 +1546,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{81082068-049E-4D18-99A6-690168DE648D}" name="Table9" displayName="Table9" ref="B4:I8" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{81082068-049E-4D18-99A6-690168DE648D}" name="Table9" displayName="Table9" ref="B4:I8" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B4:I8" xr:uid="{7CAB696A-FC5A-45B6-BE99-F7F0F0A0C201}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CE416042-56D0-4629-BB1C-165653F8C9C8}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{75607504-C802-46AF-9B7D-4BDE4FCC9BF7}" name="Stu_Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1F67F6D7-BC03-49AE-BB0E-7F5B83F5C19F}" name="Phy" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{37A81691-C4F6-4AA4-9ABE-C1A919B5FA25}" name="Che" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4894BEF9-D875-4803-977E-EC2BF9F323C8}" name="Math" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6208616F-E1A2-483C-91AE-6161A3B4FEA8}" name="Total" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{CE416042-56D0-4629-BB1C-165653F8C9C8}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{75607504-C802-46AF-9B7D-4BDE4FCC9BF7}" name="Stu_Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1F67F6D7-BC03-49AE-BB0E-7F5B83F5C19F}" name="Phy" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{37A81691-C4F6-4AA4-9ABE-C1A919B5FA25}" name="Che" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4894BEF9-D875-4803-977E-EC2BF9F323C8}" name="Math" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6208616F-E1A2-483C-91AE-6161A3B4FEA8}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>SUM(D5:F5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5F49CF92-F60C-4A3F-8638-C2E4E4B9A523}" name="Average" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{5F49CF92-F60C-4A3F-8638-C2E4E4B9A523}" name="Average" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(D5:G5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{352E765E-A30D-40AF-A574-D45CCBA104D1}" name="Rank" dataDxfId="0">
@@ -1242,9 +1569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1282,7 +1609,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1388,7 +1715,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1530,7 +1857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1538,31 +1865,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A58A1-3837-4B34-82F2-76CF817CBB7B}">
-  <dimension ref="B1:K251"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249:G249"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N147" sqref="N147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="9.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="8.3984375" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" customWidth="1"/>
-    <col min="15" max="15" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="36" t="s">
         <v>72</v>
       </c>
@@ -1576,8 +1903,8 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1602,8 +1929,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="57">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1630,11 +1957,9 @@
         <f>RANK(Table9[[#This Row],[Average]],Table9[Average],0)</f>
         <v>4</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="57">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1650,22 +1975,20 @@
         <v>34</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G8" si="0">SUM(D6:F6)</f>
+        <f t="shared" ref="G6:G7" si="0">SUM(D6:F6)</f>
         <v>133</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H8" si="1">AVERAGE(D6:G6)</f>
+        <f t="shared" ref="H6:H7" si="1">AVERAGE(D6:G6)</f>
         <v>66.5</v>
       </c>
       <c r="I6">
         <f>RANK(Table9[[#This Row],[Average]],Table9[Average],0)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="57">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1692,23 +2015,21 @@
         <f>RANK(Table9[[#This Row],[Average]],Table9[Average],0)</f>
         <v>3</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="9">
         <v>34</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="9">
         <v>43</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="9">
         <v>43</v>
       </c>
       <c r="G8" s="9">
@@ -1719,22 +2040,15 @@
         <f>AVERAGE(D8:G8)</f>
         <v>60</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8">
         <f>RANK(Table9[[#This Row],[Average]],Table9[Average],0)</f>
         <v>2</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1758,11 +2072,8 @@
         <f>MAX(H5:H10)</f>
         <v>66.5</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1786,18 +2097,14 @@
         <f>MIN(H5:H10)</f>
         <v>55.5</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="36" t="s">
         <v>71</v>
       </c>
@@ -1811,7 +2118,7 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1828,14 +2135,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="30">
         <v>11</v>
       </c>
       <c r="E23" s="1">
@@ -1846,104 +2153,92 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="1">
         <v>70</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="1">
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="1">
         <v>60</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="31">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="62"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="31">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="62"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="63">
+      <c r="D31" s="31"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D33" s="32">
         <f>SUM(D28:D31)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="36" t="s">
         <v>73</v>
       </c>
@@ -1957,7 +2252,7 @@
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +2272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -1998,7 +2293,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="4">
         <v>2</v>
       </c>
@@ -2019,7 +2314,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="4">
         <v>3</v>
       </c>
@@ -2040,7 +2335,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="4">
         <v>4</v>
       </c>
@@ -2061,7 +2356,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="4">
         <v>5</v>
       </c>
@@ -2082,7 +2377,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="4">
         <v>6</v>
       </c>
@@ -2103,7 +2398,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="4">
         <v>7</v>
       </c>
@@ -2124,7 +2419,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="4">
         <v>8</v>
       </c>
@@ -2145,7 +2440,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="4">
         <v>9</v>
       </c>
@@ -2166,33 +2461,33 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C49" s="14" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C49" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="38"/>
       <c r="E49">
         <f>SUBTOTAL(9,E39:E47)</f>
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="20">
+      <c r="D50" s="38"/>
+      <c r="E50" s="14">
         <f>SUBTOTAL(1,E39:E47)</f>
         <v>14.555555555555555</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:11" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="36" t="s">
         <v>70</v>
       </c>
@@ -2206,12 +2501,12 @@
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
         <v>23</v>
       </c>
@@ -2230,16 +2525,16 @@
       <c r="G55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="54"/>
-      <c r="I55" s="31" t="s">
+      <c r="H55" s="27"/>
+      <c r="I55" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K55" s="55"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="4">
         <v>1</v>
       </c>
@@ -2259,16 +2554,16 @@
         <f>E56*F56</f>
         <v>1200</v>
       </c>
-      <c r="H56" s="54"/>
-      <c r="I56" s="56" t="s">
+      <c r="H56" s="27"/>
+      <c r="I56" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="56">
+      <c r="J56" s="18">
         <v>1</v>
       </c>
-      <c r="K56" s="55"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="4">
         <v>2</v>
       </c>
@@ -2288,16 +2583,16 @@
         <f t="shared" ref="G57:G64" si="4">E57*F57</f>
         <v>4200</v>
       </c>
-      <c r="H57" s="54"/>
-      <c r="I57" s="56" t="s">
+      <c r="H57" s="27"/>
+      <c r="I57" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="56">
+      <c r="J57" s="18">
         <v>2</v>
       </c>
-      <c r="K57" s="55"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="4">
         <v>3</v>
       </c>
@@ -2317,16 +2612,16 @@
         <f t="shared" si="4"/>
         <v>1400</v>
       </c>
-      <c r="H58" s="54"/>
-      <c r="I58" s="56" t="s">
+      <c r="H58" s="27"/>
+      <c r="I58" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="56">
+      <c r="J58" s="18">
         <v>3</v>
       </c>
-      <c r="K58" s="55"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="27"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="4">
         <v>4</v>
       </c>
@@ -2346,16 +2641,16 @@
         <f t="shared" si="4"/>
         <v>2660</v>
       </c>
-      <c r="H59" s="54"/>
-      <c r="I59" s="56" t="s">
+      <c r="H59" s="27"/>
+      <c r="I59" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J59" s="56">
+      <c r="J59" s="18">
         <v>4</v>
       </c>
-      <c r="K59" s="55"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="4">
         <v>5</v>
       </c>
@@ -2375,16 +2670,16 @@
         <f t="shared" si="4"/>
         <v>5500</v>
       </c>
-      <c r="H60" s="54"/>
-      <c r="I60" s="56" t="s">
+      <c r="H60" s="27"/>
+      <c r="I60" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J60" s="56">
+      <c r="J60" s="18">
         <v>5</v>
       </c>
-      <c r="K60" s="55"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="27"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="4">
         <v>6</v>
       </c>
@@ -2404,16 +2699,16 @@
         <f t="shared" si="4"/>
         <v>2300</v>
       </c>
-      <c r="H61" s="54"/>
-      <c r="I61" s="56" t="s">
+      <c r="H61" s="27"/>
+      <c r="I61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J61" s="56">
+      <c r="J61" s="18">
         <v>6</v>
       </c>
-      <c r="K61" s="55"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="27"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="4">
         <v>7</v>
       </c>
@@ -2433,16 +2728,16 @@
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="H62" s="54"/>
-      <c r="I62" s="56" t="s">
+      <c r="H62" s="27"/>
+      <c r="I62" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J62" s="56">
+      <c r="J62" s="18">
         <v>9</v>
       </c>
-      <c r="K62" s="55"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="27"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="4">
         <v>8</v>
       </c>
@@ -2462,12 +2757,12 @@
         <f t="shared" si="4"/>
         <v>1870</v>
       </c>
-      <c r="H63" s="54"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="4">
         <v>9</v>
       </c>
@@ -2487,97 +2782,88 @@
         <f t="shared" si="4"/>
         <v>3150</v>
       </c>
-      <c r="H64" s="54"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H65" s="54"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="18" t="s">
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="18"/>
+      <c r="C66" s="39"/>
       <c r="D66" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="13">
         <f>SUBTOTAL(VLOOKUP(D66,I55:J62,2,0),E56:E64)</f>
         <v>131</v>
       </c>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:11" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="37" t="s">
+    <row r="69" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-    </row>
-    <row r="70" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="10"/>
-    </row>
-    <row r="71" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="10"/>
-      <c r="D71" s="22" t="s">
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D71" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="21"/>
-      <c r="G71" s="23" t="s">
+      <c r="E71" s="1"/>
+      <c r="G71" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="10"/>
-      <c r="D72" s="22" t="s">
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D72" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="21"/>
-      <c r="G72" s="23" t="s">
+      <c r="E72" s="1"/>
+      <c r="G72" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="10"/>
-      <c r="D73" s="22" t="s">
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D73" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="G73" s="23" t="s">
+      <c r="E73" s="1"/>
+      <c r="G73" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-    </row>
-    <row r="74" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="10"/>
-    </row>
-    <row r="75" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
         <v>55</v>
       </c>
@@ -2591,8 +2877,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="17">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B76" s="12">
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2604,13 +2890,13 @@
       <c r="E76" s="1">
         <v>12900003</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76">
         <f>COUNT(E76:E84)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="17">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B77" s="12">
         <v>102</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2621,8 +2907,8 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="17">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B78" s="12">
         <v>104</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2631,7 +2917,7 @@
       <c r="D78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G78">
@@ -2639,8 +2925,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="17">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B79" s="12">
         <v>106</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2649,7 +2935,7 @@
       <c r="D79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="11">
         <v>12000012</v>
       </c>
       <c r="G79">
@@ -2657,8 +2943,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="17">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B80" s="12">
         <v>108</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2667,12 +2953,12 @@
       <c r="D80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="17">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="12">
         <v>110</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2681,12 +2967,12 @@
       <c r="D81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="11">
         <v>12000012</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="17">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="12">
         <v>112</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2695,12 +2981,12 @@
       <c r="D82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="11">
         <v>12000012</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="17">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B83" s="12">
         <v>114</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2709,10 +2995,10 @@
       <c r="D83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="16"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="17">
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B84" s="12">
         <v>116</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2721,11 +3007,11 @@
       <c r="D84" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="11">
         <v>12000012</v>
       </c>
     </row>
-    <row r="86" spans="2:11" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:11" s="7" customFormat="1" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B86" s="36" t="s">
         <v>74</v>
       </c>
@@ -2739,7 +3025,7 @@
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F88" s="2" t="s">
         <v>18</v>
       </c>
@@ -2750,7 +3036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
         <v>18</v>
       </c>
@@ -2760,10 +3046,10 @@
       <c r="D89" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="G89" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H89">
@@ -2771,7 +3057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>64</v>
       </c>
@@ -2784,7 +3070,7 @@
         <v>11770</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" s="3" t="s">
         <v>23</v>
       </c>
@@ -2804,7 +3090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
         <v>1</v>
       </c>
@@ -2825,7 +3111,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
         <v>2</v>
       </c>
@@ -2846,7 +3132,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
         <v>3</v>
       </c>
@@ -2867,7 +3153,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
         <v>4</v>
       </c>
@@ -2888,7 +3174,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
         <v>5</v>
       </c>
@@ -2909,7 +3195,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
         <v>6</v>
       </c>
@@ -2930,7 +3216,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
         <v>7</v>
       </c>
@@ -2951,7 +3237,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
         <v>8</v>
       </c>
@@ -2972,7 +3258,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B101" s="4">
         <v>9</v>
       </c>
@@ -2993,15 +3279,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B103" s="36" t="s">
         <v>75</v>
       </c>
@@ -3015,35 +3293,35 @@
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="30" t="s">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B106" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="G106" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H106" s="34" t="s">
+      <c r="H106" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I106" s="35"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="25">
+      <c r="I106" s="44"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B107" s="17">
         <v>12</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="18">
         <v>32</v>
       </c>
-      <c r="D107" s="26">
+      <c r="D107" s="18">
         <v>45</v>
       </c>
       <c r="E107" s="6">
@@ -3053,20 +3331,20 @@
       <c r="G107" s="1">
         <v>10000</v>
       </c>
-      <c r="H107" s="28">
+      <c r="H107" s="34">
         <f>G107+G107*10%</f>
         <v>11000</v>
       </c>
-      <c r="I107" s="29"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="25">
+      <c r="I107" s="35"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B108" s="17">
         <v>32</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="18">
         <v>34</v>
       </c>
-      <c r="D108" s="26">
+      <c r="D108" s="18">
         <v>65</v>
       </c>
       <c r="E108" s="6">
@@ -3076,17 +3354,17 @@
       <c r="G108" s="1">
         <v>12000</v>
       </c>
-      <c r="H108" s="28"/>
-      <c r="I108" s="29"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B109" s="25">
+      <c r="H108" s="34"/>
+      <c r="I108" s="35"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B109" s="17">
         <v>23</v>
       </c>
-      <c r="C109" s="26">
+      <c r="C109" s="18">
         <v>43</v>
       </c>
-      <c r="D109" s="26">
+      <c r="D109" s="18">
         <v>56</v>
       </c>
       <c r="E109" s="6">
@@ -3096,17 +3374,17 @@
       <c r="G109" s="1">
         <v>20000</v>
       </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="29"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="25">
+      <c r="H109" s="34"/>
+      <c r="I109" s="35"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B110" s="17">
         <v>43</v>
       </c>
-      <c r="C110" s="26">
+      <c r="C110" s="18">
         <v>45</v>
       </c>
-      <c r="D110" s="26">
+      <c r="D110" s="18">
         <v>54</v>
       </c>
       <c r="E110" s="6">
@@ -3116,28 +3394,28 @@
       <c r="G110" s="1">
         <v>21000</v>
       </c>
-      <c r="H110" s="28"/>
-      <c r="I110" s="29"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="32" t="s">
+      <c r="H110" s="34"/>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B113" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H113" s="34" t="s">
+      <c r="H113" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="I113" s="35"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I113" s="44"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="4"/>
       <c r="C114" s="1">
         <v>100</v>
@@ -3149,13 +3427,13 @@
       <c r="G114" s="1">
         <v>10000</v>
       </c>
-      <c r="H114" s="28">
+      <c r="H114" s="34">
         <f>G114-G114*10%</f>
         <v>9000</v>
       </c>
-      <c r="I114" s="29"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I114" s="35"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B115" s="4"/>
       <c r="C115" s="1">
         <v>200</v>
@@ -3167,10 +3445,10 @@
       <c r="G115" s="1">
         <v>12000</v>
       </c>
-      <c r="H115" s="28"/>
-      <c r="I115" s="29"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H115" s="34"/>
+      <c r="I115" s="35"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B116" s="4"/>
       <c r="C116" s="1">
         <v>300</v>
@@ -3179,18 +3457,18 @@
       <c r="G116" s="1">
         <v>20000</v>
       </c>
-      <c r="H116" s="28"/>
-      <c r="I116" s="29"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H116" s="34"/>
+      <c r="I116" s="35"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
       <c r="G117" s="1">
         <v>21000</v>
       </c>
-      <c r="H117" s="28"/>
-      <c r="I117" s="29"/>
-    </row>
-    <row r="120" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="38" t="s">
+      <c r="H117" s="34"/>
+      <c r="I117" s="35"/>
+    </row>
+    <row r="120" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C120" s="36"/>
@@ -3203,12 +3481,12 @@
       <c r="J120" s="36"/>
       <c r="K120" s="36"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B123" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B124" s="5">
         <v>-3</v>
       </c>
@@ -3216,9 +3494,9 @@
         <f>ABS(B124)</f>
         <v>3</v>
       </c>
-      <c r="F124" s="39"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F124" s="24"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B125" s="5">
         <v>3</v>
       </c>
@@ -3226,9 +3504,9 @@
         <f t="shared" ref="D125:D127" si="7">ABS(B125)</f>
         <v>3</v>
       </c>
-      <c r="F125" s="39"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F125" s="24"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B126" s="5">
         <v>4</v>
       </c>
@@ -3236,9 +3514,9 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="F126" s="39"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F126" s="24"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B127" s="5">
         <v>-4</v>
       </c>
@@ -3247,8 +3525,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:11" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="38" t="s">
+    <row r="137" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B137" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C137" s="36"/>
@@ -3261,7 +3539,7 @@
       <c r="J137" s="36"/>
       <c r="K137" s="36"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
       <c r="G139" s="2" t="s">
         <v>18</v>
       </c>
@@ -3269,7 +3547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
       <c r="G140" t="s">
         <v>21</v>
       </c>
@@ -3278,11 +3556,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="41" t="s">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B142" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C142" s="41"/>
+      <c r="C142" s="45"/>
       <c r="G142" s="2" t="s">
         <v>18</v>
       </c>
@@ -3293,11 +3571,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="42" t="s">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B143" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C143" s="42"/>
+      <c r="C143" s="46"/>
       <c r="D143" t="str">
         <f>TRIM(B143)</f>
         <v>Deepak Nehra</v>
@@ -3312,11 +3590,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="42" t="s">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B144" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C144" s="42"/>
+      <c r="C144" s="46"/>
       <c r="D144" t="str">
         <f t="shared" ref="D144:D148" si="8">TRIM(B144)</f>
         <v>Deepak EduWorld</v>
@@ -3331,11 +3609,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="42" t="s">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B145" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C145" s="42"/>
+      <c r="C145" s="46"/>
       <c r="D145" t="str">
         <f>TRIM(B145)</f>
         <v>Learn Excel</v>
@@ -3350,11 +3628,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="42" t="s">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B146" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C146" s="42"/>
+      <c r="C146" s="46"/>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
         <v>Excel Tips</v>
@@ -3369,9 +3647,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="42"/>
-      <c r="C147" s="42"/>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3386,1015 +3664,1090 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D148" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="38" t="s">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A150" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="59"/>
+      <c r="J150" s="59"/>
+      <c r="K150" s="59"/>
+      <c r="L150" s="59"/>
+      <c r="M150" s="59"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A151" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="58"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="58"/>
+      <c r="M151" s="58"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A152" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="58"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="58"/>
+      <c r="I152" s="58"/>
+      <c r="J152" s="58"/>
+      <c r="K152" s="58"/>
+      <c r="L152" s="58"/>
+      <c r="M152" s="58"/>
+    </row>
+    <row r="155" spans="1:13" ht="279.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="63"/>
+      <c r="C155" s="63"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="63"/>
+      <c r="L155" s="63"/>
+      <c r="M155" s="63"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H162" s="61"/>
+    </row>
+    <row r="164" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B164" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B157" s="3" t="s">
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B167" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B158" s="4" t="s">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B168" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C168" s="4">
         <v>45</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E158" s="1" t="str">
-        <f>UPPER(B158)</f>
+      <c r="E168" s="1" t="str">
+        <f>UPPER(B168)</f>
         <v>RAJ KUMAR</v>
       </c>
-      <c r="F158" s="1" t="str">
-        <f>LOWER(B158)</f>
+      <c r="F168" s="1" t="str">
+        <f>LOWER(B168)</f>
         <v>raj kumar</v>
       </c>
-      <c r="G158" s="1" t="str">
-        <f>PROPER(B158)</f>
+      <c r="G168" s="1" t="str">
+        <f>PROPER(B168)</f>
         <v>Raj Kumar</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B159" s="4" t="s">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B169" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C169" s="4">
         <v>34</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E159" s="1" t="str">
-        <f t="shared" ref="E159:E162" si="9">UPPER(B159)</f>
+      <c r="E169" s="1" t="str">
+        <f t="shared" ref="E169:E172" si="9">UPPER(B169)</f>
         <v>OM</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B160" s="4" t="s">
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B170" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C170" s="4">
         <v>34</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E160" s="1" t="str">
+      <c r="E170" s="1" t="str">
         <f t="shared" si="9"/>
         <v>ANIL KUMAR</v>
       </c>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B161" s="4" t="s">
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B171" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C171" s="4">
         <v>32</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E161" s="1" t="str">
+      <c r="E171" s="1" t="str">
         <f t="shared" si="9"/>
         <v>ABI SHARMA</v>
       </c>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B162" s="4" t="s">
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B172" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C172" s="4">
         <v>23</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E162" s="1" t="str">
+      <c r="E172" s="1" t="str">
         <f t="shared" si="9"/>
         <v>RAJ KUMAR</v>
       </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="171" spans="2:11" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="38" t="s">
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="181" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B181" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B173" s="13" t="s">
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B183" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B174" s="3" t="s">
+      <c r="C183" s="47"/>
+      <c r="D183" s="47"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B184" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F174" s="13" t="s">
+      <c r="F184" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="13"/>
-      <c r="J174" s="13"/>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B175" s="4" t="s">
+      <c r="G184" s="47"/>
+      <c r="H184" s="47"/>
+      <c r="I184" s="47"/>
+      <c r="J184" s="47"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B185" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F175" s="40" t="str">
-        <f>CONCATENATE(B175," - ",C175," ",D175)</f>
+      <c r="F185" s="51" t="str">
+        <f>CONCATENATE(B185," - ",C185," ",D185)</f>
         <v>raj - kumar sharma</v>
       </c>
-      <c r="G175" s="40"/>
-      <c r="H175" s="40"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="40"/>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B176" s="4" t="s">
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="51"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B186" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D176" s="1"/>
-      <c r="F176" s="40" t="str">
-        <f t="shared" ref="F176:F178" si="10">CONCATENATE(B176," - ",C176," ",D176)</f>
+      <c r="D186" s="1"/>
+      <c r="F186" s="51" t="str">
+        <f t="shared" ref="F186" si="10">CONCATENATE(B186," - ",C186," ",D186)</f>
         <v xml:space="preserve">om - prakash </v>
       </c>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B177" s="4" t="s">
+      <c r="G186" s="51"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B187" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1" t="s">
+      <c r="C187" s="1"/>
+      <c r="D187" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F177" s="40" t="str">
-        <f>B177&amp;" "&amp;C177&amp;" "&amp;D177</f>
+      <c r="F187" s="51" t="str">
+        <f>B187&amp;" "&amp;C187&amp;" "&amp;D187</f>
         <v>abi  sharma</v>
       </c>
-      <c r="G177" s="40"/>
-      <c r="H177" s="40"/>
-      <c r="I177" s="40"/>
-      <c r="J177" s="40"/>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B178" s="4" t="s">
+      <c r="G187" s="51"/>
+      <c r="H187" s="51"/>
+      <c r="I187" s="51"/>
+      <c r="J187" s="51"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B188" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C188" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="D188" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F178" s="40" t="str">
-        <f>B178&amp;" "&amp;C178&amp;" "&amp;D178</f>
+      <c r="F188" s="51" t="str">
+        <f>B188&amp;" "&amp;C188&amp;" "&amp;D188</f>
         <v>Ram singh dagar</v>
       </c>
-      <c r="G178" s="40"/>
-      <c r="H178" s="40"/>
-      <c r="I178" s="40"/>
-      <c r="J178" s="40"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B181" s="3" t="s">
+      <c r="G188" s="51"/>
+      <c r="H188" s="51"/>
+      <c r="I188" s="51"/>
+      <c r="J188" s="51"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B191" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G181" s="44" t="s">
+      <c r="G191" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="H181" s="44"/>
-      <c r="I181" s="44"/>
-      <c r="J181" s="44"/>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B182" s="4" t="s">
+      <c r="H191" s="48"/>
+      <c r="I191" s="48"/>
+      <c r="J191" s="48"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B192" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D192" s="1">
         <v>132102</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E192" s="1">
         <v>232323</v>
       </c>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B183" s="4" t="s">
+      <c r="G192" s="49"/>
+      <c r="H192" s="49"/>
+      <c r="I192" s="49"/>
+      <c r="J192" s="49"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B193" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D193" s="1">
         <v>121102</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E193" s="1">
         <v>232344</v>
       </c>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B184" s="4" t="s">
+      <c r="G193" s="49"/>
+      <c r="H193" s="49"/>
+      <c r="I193" s="49"/>
+      <c r="J193" s="49"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B194" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D194" s="1">
         <v>123203</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E194" s="1">
         <v>54344</v>
       </c>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-    </row>
-    <row r="188" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="38" t="s">
+      <c r="G194" s="49"/>
+      <c r="H194" s="49"/>
+      <c r="I194" s="49"/>
+      <c r="J194" s="49"/>
+    </row>
+    <row r="198" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B198" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C188" s="36"/>
-      <c r="D188" s="36"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F190" t="str">
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="36"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F200" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B191" s="13" t="s">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B201" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B192" s="3" t="s">
+      <c r="C201" s="47"/>
+      <c r="D201" s="47"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B202" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G192" s="13" t="s">
+      <c r="G202" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B193" s="4" t="s">
+      <c r="H202" s="47"/>
+      <c r="I202" s="47"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B203" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G193" s="40" t="str">
-        <f>_xlfn.CONCAT(B193:D193)</f>
+      <c r="G203" s="51" t="str">
+        <f>_xlfn.CONCAT(B203:D203)</f>
         <v>rajkumarsharma</v>
       </c>
-      <c r="H193" s="40"/>
-      <c r="I193" s="40"/>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B194" s="4" t="s">
+      <c r="H203" s="51"/>
+      <c r="I203" s="51"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B204" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D194" s="1"/>
-      <c r="G194" s="40"/>
-      <c r="H194" s="40"/>
-      <c r="I194" s="40"/>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B195" s="4" t="s">
+      <c r="D204" s="1"/>
+      <c r="G204" s="51"/>
+      <c r="H204" s="51"/>
+      <c r="I204" s="51"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B205" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1" t="s">
+      <c r="C205" s="1"/>
+      <c r="D205" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G195" s="40" t="str">
-        <f>_xlfn.TEXTJOIN(" ",FALSE,B195:D195)</f>
+      <c r="G205" s="51" t="str">
+        <f>_xlfn.TEXTJOIN(" ",FALSE,B205:D205)</f>
         <v>abi  sharma</v>
       </c>
-      <c r="H195" s="40"/>
-      <c r="I195" s="40"/>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B196" s="4" t="s">
+      <c r="H205" s="51"/>
+      <c r="I205" s="51"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B206" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C206" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D196" s="21" t="s">
+      <c r="D206" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G196" s="40" t="str">
-        <f>_xlfn.TEXTJOIN(" - ",TRUE,B196:D196)</f>
+      <c r="G206" s="51" t="str">
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,B206:D206)</f>
         <v>Ram - singh - dagar</v>
       </c>
-      <c r="H196" s="40"/>
-      <c r="I196" s="40"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B199" s="3" t="s">
+      <c r="H206" s="51"/>
+      <c r="I206" s="51"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B209" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E209" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="G209" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-    </row>
-    <row r="200" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="4" t="s">
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="2:11" ht="21.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B210" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D210" s="1">
         <v>132102</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E210" s="1">
         <v>232323</v>
       </c>
-      <c r="G200" s="64" t="str">
-        <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,B200:E200)</f>
+      <c r="G210" s="50" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,B210:E210)</f>
         <v>Delhi
 HR
 132102
 232323</v>
       </c>
-      <c r="H200" s="64"/>
-      <c r="I200" s="64"/>
-      <c r="J200" s="64"/>
-    </row>
-    <row r="201" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="4" t="s">
+      <c r="H210" s="50"/>
+      <c r="I210" s="50"/>
+      <c r="J210" s="50"/>
+    </row>
+    <row r="211" spans="2:11" ht="21.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B211" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D211" s="1">
         <v>121102</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E211" s="1">
         <v>232344</v>
       </c>
-      <c r="G201" s="64" t="str">
-        <f t="shared" ref="G201:G202" si="11">_xlfn.TEXTJOIN(CHAR(10),TRUE,B201:E201)</f>
+      <c r="G211" s="50" t="str">
+        <f t="shared" ref="G211:G212" si="11">_xlfn.TEXTJOIN(CHAR(10),TRUE,B211:E211)</f>
         <v>Pwl
 HR
 121102
 232344</v>
       </c>
-      <c r="H201" s="64"/>
-      <c r="I201" s="64"/>
-      <c r="J201" s="64"/>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B202" s="4" t="s">
+      <c r="H211" s="50"/>
+      <c r="I211" s="50"/>
+      <c r="J211" s="50"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B212" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D212" s="1">
         <v>123203</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E212" s="1">
         <v>54344</v>
       </c>
-      <c r="G202" s="64" t="str">
+      <c r="G212" s="50" t="str">
         <f t="shared" si="11"/>
         <v>Fbd
 HR
 123203
 54344</v>
       </c>
-      <c r="H202" s="64"/>
-      <c r="I202" s="64"/>
-      <c r="J202" s="64"/>
-    </row>
-    <row r="205" spans="2:11" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="38" t="s">
+      <c r="H212" s="50"/>
+      <c r="I212" s="50"/>
+      <c r="J212" s="50"/>
+    </row>
+    <row r="215" spans="2:11" s="7" customFormat="1" ht="25.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B215" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="36"/>
-      <c r="H205" s="36"/>
-      <c r="I205" s="36"/>
-      <c r="J205" s="36"/>
-      <c r="K205" s="36"/>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C207" t="s">
+      <c r="C215" s="36"/>
+      <c r="D215" s="36"/>
+      <c r="E215" s="36"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="36"/>
+      <c r="J215" s="36"/>
+      <c r="K215" s="36"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C217" t="s">
         <v>122</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D217" t="s">
         <v>123</v>
       </c>
-      <c r="F207" s="5"/>
-      <c r="I207" s="46" t="s">
+      <c r="F217" s="5"/>
+      <c r="I217" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="J207" s="46"/>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B208" s="3" t="s">
+      <c r="J217" s="52"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B218" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F208" s="13" t="s">
+      <c r="F218" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="G208" s="13"/>
-      <c r="H208" s="14"/>
-      <c r="I208" s="44" t="s">
+      <c r="G218" s="47"/>
+      <c r="H218" s="37"/>
+      <c r="I218" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="J208" s="44"/>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B209" s="4" t="s">
+      <c r="J218" s="48"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B219" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C209" s="1" t="str">
-        <f>LEFT(B209,3)</f>
+      <c r="C219" s="1" t="str">
+        <f>LEFT(B219,3)</f>
         <v>011</v>
       </c>
-      <c r="D209" s="1" t="str">
-        <f>RIGHT(B209,5)</f>
+      <c r="D219" s="1" t="str">
+        <f>RIGHT(B219,5)</f>
         <v>23423</v>
       </c>
-      <c r="F209" s="40" t="s">
+      <c r="F219" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="G209" s="40"/>
-      <c r="H209" s="45"/>
-      <c r="I209" s="27" t="str">
-        <f>MID(F209,7,9)</f>
+      <c r="G219" s="51"/>
+      <c r="H219" s="53"/>
+      <c r="I219" s="49" t="str">
+        <f>MID(F219,7,9)</f>
         <v>011-32343</v>
       </c>
-      <c r="J209" s="27"/>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B210" s="4" t="s">
+      <c r="J219" s="49"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B220" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C210" s="1" t="str">
-        <f t="shared" ref="C210:C212" si="12">LEFT(B210,3)</f>
+      <c r="C220" s="1" t="str">
+        <f t="shared" ref="C220:C222" si="12">LEFT(B220,3)</f>
         <v>365</v>
       </c>
-      <c r="D210" s="1" t="str">
-        <f t="shared" ref="D210:D212" si="13">RIGHT(B210,5)</f>
+      <c r="D220" s="1" t="str">
+        <f t="shared" ref="D220:D222" si="13">RIGHT(B220,5)</f>
         <v>34222</v>
       </c>
-      <c r="F210" s="40" t="s">
+      <c r="F220" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G210" s="40"/>
-      <c r="H210" s="45"/>
-      <c r="I210" s="27" t="str">
-        <f t="shared" ref="I210:I212" si="14">MID(F210,7,9)</f>
+      <c r="G220" s="51"/>
+      <c r="H220" s="53"/>
+      <c r="I220" s="49" t="str">
+        <f t="shared" ref="I220:I222" si="14">MID(F220,7,9)</f>
         <v>011-32343</v>
       </c>
-      <c r="J210" s="27"/>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B211" s="4" t="s">
+      <c r="J220" s="49"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B221" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C211" s="1" t="str">
+      <c r="C221" s="1" t="str">
         <f t="shared" si="12"/>
         <v>221</v>
       </c>
-      <c r="D211" s="1" t="str">
+      <c r="D221" s="1" t="str">
         <f t="shared" si="13"/>
         <v>34343</v>
       </c>
-      <c r="F211" s="40" t="s">
+      <c r="F221" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="G211" s="40"/>
-      <c r="H211" s="45"/>
-      <c r="I211" s="27" t="str">
+      <c r="G221" s="51"/>
+      <c r="H221" s="53"/>
+      <c r="I221" s="49" t="str">
         <f t="shared" si="14"/>
         <v>011-32343</v>
       </c>
-      <c r="J211" s="27"/>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B212" s="4" t="s">
+      <c r="J221" s="49"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B222" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C212" s="1" t="str">
+      <c r="C222" s="1" t="str">
         <f t="shared" si="12"/>
         <v>544</v>
       </c>
-      <c r="D212" s="1" t="str">
+      <c r="D222" s="1" t="str">
         <f t="shared" si="13"/>
         <v>34432</v>
       </c>
-      <c r="F212" s="40" t="s">
+      <c r="F222" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="G212" s="40"/>
-      <c r="H212" s="45"/>
-      <c r="I212" s="27" t="str">
+      <c r="G222" s="51"/>
+      <c r="H222" s="53"/>
+      <c r="I222" s="49" t="str">
         <f t="shared" si="14"/>
         <v>011-32343</v>
       </c>
-      <c r="J212" s="27"/>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B215" s="13" t="s">
+      <c r="J222" s="49"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B225" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C215" s="13"/>
-      <c r="D215" s="14"/>
-      <c r="F215" s="44" t="s">
+      <c r="C225" s="47"/>
+      <c r="D225" s="37"/>
+      <c r="F225" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G215" s="44"/>
-      <c r="H215" s="44" t="s">
+      <c r="G225" s="48"/>
+      <c r="H225" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="I215" s="44"/>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B216" s="42" t="s">
+      <c r="I225" s="48"/>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B226" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C216" s="42"/>
-      <c r="D216" s="42"/>
-      <c r="F216" s="42">
+      <c r="C226" s="46"/>
+      <c r="D226" s="46"/>
+      <c r="F226" s="46">
         <v>9823244433</v>
       </c>
-      <c r="G216" s="42"/>
-      <c r="H216" s="27" t="str">
-        <f>LEFT(F216,3)&amp;"****"&amp;RIGHT(F216,3)</f>
+      <c r="G226" s="46"/>
+      <c r="H226" s="49" t="str">
+        <f>LEFT(F226,3)&amp;"****"&amp;RIGHT(F226,3)</f>
         <v>982****433</v>
       </c>
-      <c r="I216" s="27"/>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B217" s="42" t="s">
+      <c r="I226" s="49"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B227" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C217" s="42"/>
-      <c r="D217" s="42"/>
-      <c r="F217" s="42">
+      <c r="C227" s="46"/>
+      <c r="D227" s="46"/>
+      <c r="F227" s="46">
         <v>9823244434</v>
       </c>
-      <c r="G217" s="42"/>
-      <c r="H217" s="27" t="str">
-        <f t="shared" ref="H217:H219" si="15">LEFT(F217,3)&amp;"****"&amp;RIGHT(F217,3)</f>
+      <c r="G227" s="46"/>
+      <c r="H227" s="49" t="str">
+        <f t="shared" ref="H227:H229" si="15">LEFT(F227,3)&amp;"****"&amp;RIGHT(F227,3)</f>
         <v>982****434</v>
       </c>
-      <c r="I217" s="27"/>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B218" s="42" t="s">
+      <c r="I227" s="49"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B228" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C218" s="42"/>
-      <c r="D218" s="42"/>
-      <c r="F218" s="42">
+      <c r="C228" s="46"/>
+      <c r="D228" s="46"/>
+      <c r="F228" s="46">
         <v>9823244435</v>
       </c>
-      <c r="G218" s="42"/>
-      <c r="H218" s="27" t="str">
+      <c r="G228" s="46"/>
+      <c r="H228" s="49" t="str">
         <f t="shared" si="15"/>
         <v>982****435</v>
       </c>
-      <c r="I218" s="27"/>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B219" s="42" t="s">
+      <c r="I228" s="49"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B229" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C219" s="42"/>
-      <c r="D219" s="42"/>
-      <c r="F219" s="42">
+      <c r="C229" s="46"/>
+      <c r="D229" s="46"/>
+      <c r="F229" s="46">
         <v>9823244436</v>
       </c>
-      <c r="G219" s="42"/>
-      <c r="H219" s="27" t="str">
+      <c r="G229" s="46"/>
+      <c r="H229" s="49" t="str">
         <f t="shared" si="15"/>
         <v>982****436</v>
       </c>
-      <c r="I219" s="27"/>
-    </row>
-    <row r="221" spans="2:11" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="38" t="s">
+      <c r="I229" s="49"/>
+    </row>
+    <row r="231" spans="2:11" s="7" customFormat="1" ht="25.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B231" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C221" s="36"/>
-      <c r="D221" s="36"/>
-      <c r="E221" s="36"/>
-      <c r="F221" s="36"/>
-      <c r="G221" s="36"/>
-      <c r="H221" s="36"/>
-      <c r="I221" s="36"/>
-      <c r="J221" s="36"/>
-      <c r="K221" s="36"/>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B224" s="44" t="s">
+      <c r="C231" s="36"/>
+      <c r="D231" s="36"/>
+      <c r="E231" s="36"/>
+      <c r="F231" s="36"/>
+      <c r="G231" s="36"/>
+      <c r="H231" s="36"/>
+      <c r="I231" s="36"/>
+      <c r="J231" s="36"/>
+      <c r="K231" s="36"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B234" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C224" s="44"/>
-      <c r="D224" s="44" t="s">
+      <c r="C234" s="48"/>
+      <c r="D234" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="E224" s="44"/>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B225" s="42">
+      <c r="E234" s="48"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B235" s="46">
         <v>9823244433</v>
       </c>
-      <c r="C225" s="42"/>
-      <c r="D225" s="27" t="str">
-        <f>LEFT(B225,3)&amp;"***"&amp;RIGHT(B225,3)</f>
+      <c r="C235" s="46"/>
+      <c r="D235" s="49" t="str">
+        <f>LEFT(B235,3)&amp;"***"&amp;RIGHT(B235,3)</f>
         <v>982***433</v>
       </c>
-      <c r="E225" s="27"/>
-      <c r="G225" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D225)</f>
-        <v>=LEFT(B225,3)&amp;"***"&amp;RIGHT(B225,3)</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B226" s="42">
+      <c r="E235" s="49"/>
+      <c r="G235" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D235)</f>
+        <v>=LEFT(B235,3)&amp;"***"&amp;RIGHT(B235,3)</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B236" s="46">
         <v>9823244434</v>
       </c>
-      <c r="C226" s="42"/>
-      <c r="D226" s="27" t="str">
-        <f t="shared" ref="D226" si="16">LEFT(B226,3)&amp;"***"&amp;RIGHT(B226,3)</f>
+      <c r="C236" s="46"/>
+      <c r="D236" s="49" t="str">
+        <f t="shared" ref="D236" si="16">LEFT(B236,3)&amp;"***"&amp;RIGHT(B236,3)</f>
         <v>982***434</v>
       </c>
-      <c r="E226" s="27"/>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D228" s="48">
+      <c r="E236" s="49"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D238" s="55">
         <f ca="1">NOW()</f>
-        <v>43923.365336226852</v>
-      </c>
-      <c r="E228" s="48"/>
-    </row>
-    <row r="237" spans="2:11" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="38" t="s">
+        <v>45981.584745138891</v>
+      </c>
+      <c r="E238" s="55"/>
+    </row>
+    <row r="247" spans="2:11" s="7" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B247" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C237" s="36"/>
-      <c r="D237" s="36"/>
-      <c r="E237" s="36"/>
-      <c r="F237" s="36"/>
-      <c r="G237" s="36"/>
-      <c r="H237" s="36"/>
-      <c r="I237" s="36"/>
-      <c r="J237" s="36"/>
-      <c r="K237" s="36"/>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B240" s="49"/>
-      <c r="C240" s="13" t="s">
+      <c r="C247" s="36"/>
+      <c r="D247" s="36"/>
+      <c r="E247" s="36"/>
+      <c r="F247" s="36"/>
+      <c r="G247" s="36"/>
+      <c r="H247" s="36"/>
+      <c r="I247" s="36"/>
+      <c r="J247" s="36"/>
+      <c r="K247" s="36"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B250" s="25"/>
+      <c r="C250" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D240" s="13"/>
-      <c r="F240" s="52" t="s">
+      <c r="D250" s="47"/>
+      <c r="F250" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="G240" s="52"/>
-      <c r="H240" s="52"/>
-      <c r="I240" s="52"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B241" s="49"/>
-      <c r="C241" s="51">
+      <c r="G250" s="48"/>
+      <c r="H250" s="48"/>
+      <c r="I250" s="48"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B251" s="25"/>
+      <c r="C251" s="54">
         <v>43833</v>
       </c>
-      <c r="D241" s="51"/>
-      <c r="F241" s="50">
-        <f>EDATE(C241,-3)</f>
+      <c r="D251" s="54"/>
+      <c r="F251" s="54">
+        <f>EDATE(C251,-3)</f>
         <v>43741</v>
       </c>
-      <c r="G241" s="50"/>
-      <c r="H241" s="50"/>
-      <c r="I241" s="50"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B242" s="49"/>
-      <c r="C242" s="51">
+      <c r="G251" s="54"/>
+      <c r="H251" s="54"/>
+      <c r="I251" s="54"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B252" s="25"/>
+      <c r="C252" s="54">
         <v>43835</v>
       </c>
-      <c r="D242" s="51"/>
-      <c r="F242" s="50"/>
-      <c r="G242" s="50"/>
-      <c r="H242" s="50"/>
-      <c r="I242" s="50"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B243" s="49"/>
-      <c r="C243" s="51">
+      <c r="D252" s="54"/>
+      <c r="F252" s="54"/>
+      <c r="G252" s="54"/>
+      <c r="H252" s="54"/>
+      <c r="I252" s="54"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B253" s="25"/>
+      <c r="C253" s="54">
         <v>43837</v>
       </c>
-      <c r="D243" s="51"/>
-      <c r="F243" s="50"/>
-      <c r="G243" s="50"/>
-      <c r="H243" s="50"/>
-      <c r="I243" s="50"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B244" s="49"/>
-      <c r="C244" s="51">
+      <c r="D253" s="54"/>
+      <c r="F253" s="54"/>
+      <c r="G253" s="54"/>
+      <c r="H253" s="54"/>
+      <c r="I253" s="54"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B254" s="25"/>
+      <c r="C254" s="54">
         <v>43831</v>
       </c>
-      <c r="D244" s="51"/>
-      <c r="F244" s="50"/>
-      <c r="G244" s="50"/>
-      <c r="H244" s="50"/>
-      <c r="I244" s="50"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B245" s="49"/>
-      <c r="C245" s="43"/>
-      <c r="D245" s="43"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B246" s="49"/>
-      <c r="C246" s="43"/>
-      <c r="D246" s="43"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B247" s="49"/>
-      <c r="C247" s="13" t="s">
+      <c r="D254" s="54"/>
+      <c r="F254" s="54"/>
+      <c r="G254" s="54"/>
+      <c r="H254" s="54"/>
+      <c r="I254" s="54"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B255" s="25"/>
+      <c r="C255" s="40"/>
+      <c r="D255" s="40"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B256" s="25"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="40"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257" s="25"/>
+      <c r="C257" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D247" s="13"/>
-      <c r="F247" s="13" t="s">
+      <c r="D257" s="47"/>
+      <c r="F257" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="G247" s="13"/>
-      <c r="I247" s="53"/>
-      <c r="J247" s="53"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C248" s="51">
+      <c r="G257" s="47"/>
+      <c r="I257" s="26"/>
+      <c r="J257" s="26"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C258" s="54">
         <v>43833</v>
       </c>
-      <c r="D248" s="51"/>
-      <c r="F248" s="51">
-        <f>EOMONTH(C248,2)</f>
+      <c r="D258" s="54"/>
+      <c r="F258" s="54">
+        <f>EOMONTH(C258,2)</f>
         <v>43921</v>
       </c>
-      <c r="G248" s="51"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C249" s="51">
+      <c r="G258" s="54"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C259" s="54">
         <v>43866</v>
       </c>
-      <c r="D249" s="51"/>
-      <c r="F249" s="51"/>
-      <c r="G249" s="51"/>
-      <c r="I249" s="47"/>
-      <c r="J249" s="47"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C250" s="51">
+      <c r="D259" s="54"/>
+      <c r="F259" s="54"/>
+      <c r="G259" s="54"/>
+      <c r="I259" s="56"/>
+      <c r="J259" s="56"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C260" s="54">
         <v>43837</v>
       </c>
-      <c r="D250" s="51"/>
-      <c r="F250" s="51"/>
-      <c r="G250" s="51"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C251" s="51">
+      <c r="D260" s="54"/>
+      <c r="F260" s="54"/>
+      <c r="G260" s="54"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C261" s="54">
         <v>43831</v>
       </c>
-      <c r="D251" s="51"/>
-      <c r="F251" s="51"/>
-      <c r="G251" s="51"/>
-      <c r="I251" s="65"/>
+      <c r="D261" s="54"/>
+      <c r="F261" s="54"/>
+      <c r="G261" s="54"/>
+      <c r="I261" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="B55:G64" xr:uid="{15791976-F3D5-4431-901D-D5B96807BCA4}"/>
-  <mergeCells count="112">
+  <mergeCells count="116">
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="F251:I251"/>
+    <mergeCell ref="F252:I252"/>
+    <mergeCell ref="F253:I253"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="F250:I250"/>
+    <mergeCell ref="C254:D254"/>
     <mergeCell ref="C251:D251"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F241:I241"/>
-    <mergeCell ref="F242:I242"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="F244:I244"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="I249:J249"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="F240:I240"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="F174:J174"/>
-    <mergeCell ref="F175:J175"/>
-    <mergeCell ref="F176:J176"/>
-    <mergeCell ref="F177:J177"/>
-    <mergeCell ref="F178:J178"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="B221:K221"/>
-    <mergeCell ref="B237:K237"/>
-    <mergeCell ref="F208:H208"/>
-    <mergeCell ref="F209:H209"/>
-    <mergeCell ref="F210:H210"/>
-    <mergeCell ref="F211:H211"/>
-    <mergeCell ref="F212:H212"/>
-    <mergeCell ref="I208:J208"/>
-    <mergeCell ref="I209:J209"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="G200:J200"/>
-    <mergeCell ref="G201:J201"/>
-    <mergeCell ref="G202:J202"/>
-    <mergeCell ref="B205:K205"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="B171:K171"/>
-    <mergeCell ref="B188:K188"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="G181:J181"/>
-    <mergeCell ref="G182:J182"/>
-    <mergeCell ref="G183:J183"/>
-    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B247:K247"/>
+    <mergeCell ref="I221:J221"/>
+    <mergeCell ref="I222:J222"/>
+    <mergeCell ref="I217:J217"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="F219:H219"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="F221:H221"/>
+    <mergeCell ref="F222:H222"/>
+    <mergeCell ref="I218:J218"/>
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B231:K231"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="G211:J211"/>
+    <mergeCell ref="G212:J212"/>
+    <mergeCell ref="B215:K215"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G210:J210"/>
+    <mergeCell ref="B181:K181"/>
+    <mergeCell ref="B198:K198"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="G191:J191"/>
+    <mergeCell ref="G192:J192"/>
+    <mergeCell ref="G193:J193"/>
+    <mergeCell ref="G194:J194"/>
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B154:K154"/>
+    <mergeCell ref="B164:K164"/>
+    <mergeCell ref="A150:M150"/>
+    <mergeCell ref="F184:J184"/>
+    <mergeCell ref="F185:J185"/>
+    <mergeCell ref="F186:J186"/>
+    <mergeCell ref="F187:J187"/>
+    <mergeCell ref="F188:J188"/>
+    <mergeCell ref="A151:M151"/>
+    <mergeCell ref="A152:M152"/>
+    <mergeCell ref="A155:M155"/>
     <mergeCell ref="B120:K120"/>
     <mergeCell ref="B137:K137"/>
     <mergeCell ref="B142:C142"/>
@@ -4447,54 +4800,54 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="F10" t="str">
         <f>LEFT(B10,FIND(" ",B10)-1)</f>
         <v>011</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="F11" t="str">
         <f t="shared" ref="F11:F13" si="0">LEFT(B11,FIND("-",B11)-1)</f>
         <v xml:space="preserve">01274 </v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">91 </v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">0112 </v>

--- a/Excel New/40 useful formula tut.xlsx
+++ b/Excel New/40 useful formula tut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuntal\Desktop\data-analysis\Excel New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0957621-7DE5-43D9-9316-13AA63157285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35547AB2-AE5E-41CC-9444-88B3F7ED9270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{EBFE3E55-01F4-400A-9722-A1B89D90A08A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -985,6 +985,15 @@
       <t>Trim: Removes leading and trailing whitespaces.
 Clean: Removes non-printable characters.</t>
     </r>
+  </si>
+  <si>
+    <t>Incorrect Format</t>
+  </si>
+  <si>
+    <t>CountA</t>
+  </si>
+  <si>
+    <t>CountBlank</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1275,13 +1284,73 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,66 +1358,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A58A1-3837-4B34-82F2-76CF817CBB7B}">
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N147" sqref="N147"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.35"/>
@@ -1890,18 +1906,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="28" t="s">
@@ -2105,18 +2121,18 @@
       <c r="B17"/>
     </row>
     <row r="18" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
@@ -2239,18 +2255,18 @@
       </c>
     </row>
     <row r="35" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
@@ -2462,10 +2478,10 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="62"/>
       <c r="E49">
         <f>SUBTOTAL(9,E39:E47)</f>
         <v>131</v>
@@ -2473,10 +2489,10 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50"/>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="38"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="14">
         <f>SUBTOTAL(1,E39:E47)</f>
         <v>14.555555555555555</v>
@@ -2488,18 +2504,18 @@
       <c r="B51"/>
     </row>
     <row r="52" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="I54" s="16"/>
@@ -2794,10 +2810,10 @@
       <c r="K65" s="27"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="39"/>
+      <c r="C66" s="63"/>
       <c r="D66" t="s">
         <v>54</v>
       </c>
@@ -2814,54 +2830,54 @@
       <c r="B68"/>
     </row>
     <row r="69" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D71" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="G71" s="40" t="s">
+      <c r="G71" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D72" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="G72" s="40" t="s">
+      <c r="G72" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D73" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="G73" s="40" t="s">
+      <c r="G73" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
@@ -2890,6 +2906,9 @@
       <c r="E76" s="1">
         <v>12900003</v>
       </c>
+      <c r="F76" s="64" t="s">
+        <v>50</v>
+      </c>
       <c r="G76">
         <f>COUNT(E76:E84)</f>
         <v>5</v>
@@ -2906,6 +2925,7 @@
         <v>44</v>
       </c>
       <c r="E77" s="1"/>
+      <c r="F77" s="64"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
@@ -2920,9 +2940,15 @@
       <c r="E78" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G78">
+      <c r="F78" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" s="66">
         <f>COUNTA(E76:E84)</f>
         <v>7</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
@@ -2938,10 +2964,17 @@
       <c r="E79" s="11">
         <v>12000012</v>
       </c>
+      <c r="F79" s="64" t="s">
+        <v>153</v>
+      </c>
       <c r="G79">
         <f>COUNTBLANK(E76:E84)</f>
         <v>2</v>
       </c>
+      <c r="I79">
+        <f>(COUNTBLANK(E76:E84)+COUNTA(E76:E84))-COUNT(E76:E84)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
@@ -3012,18 +3045,18 @@
       </c>
     </row>
     <row r="86" spans="2:11" s="7" customFormat="1" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F88" s="2" t="s">
@@ -3280,18 +3313,18 @@
       </c>
     </row>
     <row r="103" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B106" s="20" t="s">
@@ -3309,10 +3342,10 @@
       <c r="G106" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H106" s="43" t="s">
+      <c r="H106" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="I106" s="44"/>
+      <c r="I106" s="58"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B107" s="17">
@@ -3331,11 +3364,11 @@
       <c r="G107" s="1">
         <v>10000</v>
       </c>
-      <c r="H107" s="34">
+      <c r="H107" s="59">
         <f>G107+G107*10%</f>
         <v>11000</v>
       </c>
-      <c r="I107" s="35"/>
+      <c r="I107" s="60"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B108" s="17">
@@ -3354,8 +3387,8 @@
       <c r="G108" s="1">
         <v>12000</v>
       </c>
-      <c r="H108" s="34"/>
-      <c r="I108" s="35"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="60"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B109" s="17">
@@ -3374,8 +3407,8 @@
       <c r="G109" s="1">
         <v>20000</v>
       </c>
-      <c r="H109" s="34"/>
-      <c r="I109" s="35"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="60"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B110" s="17">
@@ -3394,8 +3427,8 @@
       <c r="G110" s="1">
         <v>21000</v>
       </c>
-      <c r="H110" s="34"/>
-      <c r="I110" s="35"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="60"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="22" t="s">
@@ -3410,10 +3443,10 @@
       <c r="G113" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H113" s="43" t="s">
+      <c r="H113" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I113" s="44"/>
+      <c r="I113" s="58"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="4"/>
@@ -3427,11 +3460,11 @@
       <c r="G114" s="1">
         <v>10000</v>
       </c>
-      <c r="H114" s="34">
+      <c r="H114" s="59">
         <f>G114-G114*10%</f>
         <v>9000</v>
       </c>
-      <c r="I114" s="35"/>
+      <c r="I114" s="60"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B115" s="4"/>
@@ -3445,8 +3478,8 @@
       <c r="G115" s="1">
         <v>12000</v>
       </c>
-      <c r="H115" s="34"/>
-      <c r="I115" s="35"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="60"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B116" s="4"/>
@@ -3457,29 +3490,29 @@
       <c r="G116" s="1">
         <v>20000</v>
       </c>
-      <c r="H116" s="34"/>
-      <c r="I116" s="35"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="60"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.35">
       <c r="G117" s="1">
         <v>21000</v>
       </c>
-      <c r="H117" s="34"/>
-      <c r="I117" s="35"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="60"/>
     </row>
     <row r="120" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B123" s="5" t="s">
@@ -3526,18 +3559,18 @@
       </c>
     </row>
     <row r="137" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B137" s="42" t="s">
+      <c r="B137" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="44"/>
+      <c r="K137" s="44"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.35">
       <c r="G139" s="2" t="s">
@@ -3557,10 +3590,10 @@
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C142" s="45"/>
+      <c r="C142" s="56"/>
       <c r="G142" s="2" t="s">
         <v>18</v>
       </c>
@@ -3572,10 +3605,10 @@
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C143" s="46"/>
+      <c r="C143" s="40"/>
       <c r="D143" t="str">
         <f>TRIM(B143)</f>
         <v>Deepak Nehra</v>
@@ -3591,10 +3624,10 @@
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B144" s="46" t="s">
+      <c r="B144" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C144" s="46"/>
+      <c r="C144" s="40"/>
       <c r="D144" t="str">
         <f t="shared" ref="D144:D148" si="8">TRIM(B144)</f>
         <v>Deepak EduWorld</v>
@@ -3610,10 +3643,10 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C145" s="46"/>
+      <c r="C145" s="40"/>
       <c r="D145" t="str">
         <f>TRIM(B145)</f>
         <v>Learn Excel</v>
@@ -3629,10 +3662,10 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B146" s="46" t="s">
+      <c r="B146" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C146" s="46"/>
+      <c r="C146" s="40"/>
       <c r="D146" t="str">
         <f t="shared" si="8"/>
         <v>Excel Tips</v>
@@ -3648,8 +3681,8 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B147" s="46"/>
-      <c r="C147" s="46"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
       <c r="D147" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3671,89 +3704,89 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A150" s="60" t="s">
+      <c r="A150" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="59"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="59"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="59"/>
-      <c r="J150" s="59"/>
-      <c r="K150" s="59"/>
-      <c r="L150" s="59"/>
-      <c r="M150" s="59"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
+      <c r="K150" s="51"/>
+      <c r="L150" s="51"/>
+      <c r="M150" s="51"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A151" s="58" t="s">
+      <c r="A151" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B151" s="58"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="58"/>
-      <c r="H151" s="58"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="58"/>
-      <c r="L151" s="58"/>
-      <c r="M151" s="58"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
+      <c r="I151" s="52"/>
+      <c r="J151" s="52"/>
+      <c r="K151" s="52"/>
+      <c r="L151" s="52"/>
+      <c r="M151" s="52"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A152" s="57" t="s">
+      <c r="A152" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-      <c r="F152" s="58"/>
-      <c r="G152" s="58"/>
-      <c r="H152" s="58"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="58"/>
-      <c r="L152" s="58"/>
-      <c r="M152" s="58"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="52"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="52"/>
+      <c r="H152" s="52"/>
+      <c r="I152" s="52"/>
+      <c r="J152" s="52"/>
+      <c r="K152" s="52"/>
+      <c r="L152" s="52"/>
+      <c r="M152" s="52"/>
     </row>
     <row r="155" spans="1:13" ht="279.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="63"/>
-      <c r="I155" s="63"/>
-      <c r="J155" s="63"/>
-      <c r="K155" s="63"/>
-      <c r="L155" s="63"/>
-      <c r="M155" s="63"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="55"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="55"/>
+      <c r="J155" s="55"/>
+      <c r="K155" s="55"/>
+      <c r="L155" s="55"/>
+      <c r="M155" s="55"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H162" s="61"/>
+      <c r="H162" s="34"/>
     </row>
     <row r="164" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B164" s="42" t="s">
+      <c r="B164" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="36"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="44"/>
+      <c r="E164" s="44"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="44"/>
+      <c r="I164" s="44"/>
+      <c r="J164" s="44"/>
+      <c r="K164" s="44"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
@@ -3867,25 +3900,25 @@
       <c r="G172" s="1"/>
     </row>
     <row r="181" spans="2:11" s="7" customFormat="1" ht="24.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B181" s="42" t="s">
+      <c r="B181" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="44"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="44"/>
+      <c r="I181" s="44"/>
+      <c r="J181" s="44"/>
+      <c r="K181" s="44"/>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B183" s="47" t="s">
+      <c r="B183" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C183" s="47"/>
-      <c r="D183" s="47"/>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B184" s="3" t="s">
@@ -3897,13 +3930,13 @@
       <c r="D184" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F184" s="47" t="s">
+      <c r="F184" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G184" s="47"/>
-      <c r="H184" s="47"/>
-      <c r="I184" s="47"/>
-      <c r="J184" s="47"/>
+      <c r="G184" s="36"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="36"/>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B185" s="4" t="s">
@@ -3915,14 +3948,14 @@
       <c r="D185" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F185" s="51" t="str">
+      <c r="F185" s="47" t="str">
         <f>CONCATENATE(B185," - ",C185," ",D185)</f>
         <v>raj - kumar sharma</v>
       </c>
-      <c r="G185" s="51"/>
-      <c r="H185" s="51"/>
-      <c r="I185" s="51"/>
-      <c r="J185" s="51"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="47"/>
+      <c r="J185" s="47"/>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B186" s="4" t="s">
@@ -3932,14 +3965,14 @@
         <v>101</v>
       </c>
       <c r="D186" s="1"/>
-      <c r="F186" s="51" t="str">
+      <c r="F186" s="47" t="str">
         <f t="shared" ref="F186" si="10">CONCATENATE(B186," - ",C186," ",D186)</f>
         <v xml:space="preserve">om - prakash </v>
       </c>
-      <c r="G186" s="51"/>
-      <c r="H186" s="51"/>
-      <c r="I186" s="51"/>
-      <c r="J186" s="51"/>
+      <c r="G186" s="47"/>
+      <c r="H186" s="47"/>
+      <c r="I186" s="47"/>
+      <c r="J186" s="47"/>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B187" s="4" t="s">
@@ -3949,14 +3982,14 @@
       <c r="D187" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F187" s="51" t="str">
+      <c r="F187" s="47" t="str">
         <f>B187&amp;" "&amp;C187&amp;" "&amp;D187</f>
         <v>abi  sharma</v>
       </c>
-      <c r="G187" s="51"/>
-      <c r="H187" s="51"/>
-      <c r="I187" s="51"/>
-      <c r="J187" s="51"/>
+      <c r="G187" s="47"/>
+      <c r="H187" s="47"/>
+      <c r="I187" s="47"/>
+      <c r="J187" s="47"/>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B188" s="4" t="s">
@@ -3968,14 +4001,14 @@
       <c r="D188" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F188" s="51" t="str">
+      <c r="F188" s="47" t="str">
         <f>B188&amp;" "&amp;C188&amp;" "&amp;D188</f>
         <v>Ram singh dagar</v>
       </c>
-      <c r="G188" s="51"/>
-      <c r="H188" s="51"/>
-      <c r="I188" s="51"/>
-      <c r="J188" s="51"/>
+      <c r="G188" s="47"/>
+      <c r="H188" s="47"/>
+      <c r="I188" s="47"/>
+      <c r="J188" s="47"/>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B191" s="3" t="s">
@@ -3990,12 +4023,12 @@
       <c r="E191" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G191" s="48" t="s">
+      <c r="G191" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="H191" s="48"/>
-      <c r="I191" s="48"/>
-      <c r="J191" s="48"/>
+      <c r="H191" s="39"/>
+      <c r="I191" s="39"/>
+      <c r="J191" s="39"/>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B192" s="4" t="s">
@@ -4010,10 +4043,10 @@
       <c r="E192" s="1">
         <v>232323</v>
       </c>
-      <c r="G192" s="49"/>
-      <c r="H192" s="49"/>
-      <c r="I192" s="49"/>
-      <c r="J192" s="49"/>
+      <c r="G192" s="41"/>
+      <c r="H192" s="41"/>
+      <c r="I192" s="41"/>
+      <c r="J192" s="41"/>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B193" s="4" t="s">
@@ -4028,10 +4061,10 @@
       <c r="E193" s="1">
         <v>232344</v>
       </c>
-      <c r="G193" s="49"/>
-      <c r="H193" s="49"/>
-      <c r="I193" s="49"/>
-      <c r="J193" s="49"/>
+      <c r="G193" s="41"/>
+      <c r="H193" s="41"/>
+      <c r="I193" s="41"/>
+      <c r="J193" s="41"/>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B194" s="4" t="s">
@@ -4046,24 +4079,24 @@
       <c r="E194" s="1">
         <v>54344</v>
       </c>
-      <c r="G194" s="49"/>
-      <c r="H194" s="49"/>
-      <c r="I194" s="49"/>
-      <c r="J194" s="49"/>
+      <c r="G194" s="41"/>
+      <c r="H194" s="41"/>
+      <c r="I194" s="41"/>
+      <c r="J194" s="41"/>
     </row>
     <row r="198" spans="2:11" s="7" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B198" s="42" t="s">
+      <c r="B198" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="36"/>
-      <c r="E198" s="36"/>
-      <c r="F198" s="36"/>
-      <c r="G198" s="36"/>
-      <c r="H198" s="36"/>
-      <c r="I198" s="36"/>
-      <c r="J198" s="36"/>
-      <c r="K198" s="36"/>
+      <c r="C198" s="44"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="44"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="44"/>
+      <c r="I198" s="44"/>
+      <c r="J198" s="44"/>
+      <c r="K198" s="44"/>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F200" t="str">
@@ -4073,11 +4106,11 @@
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B201" s="47" t="s">
+      <c r="B201" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C201" s="47"/>
-      <c r="D201" s="47"/>
+      <c r="C201" s="36"/>
+      <c r="D201" s="36"/>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B202" s="3" t="s">
@@ -4089,11 +4122,11 @@
       <c r="D202" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G202" s="47" t="s">
+      <c r="G202" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="H202" s="47"/>
-      <c r="I202" s="47"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="36"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B203" s="4" t="s">
@@ -4105,12 +4138,12 @@
       <c r="D203" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G203" s="51" t="str">
+      <c r="G203" s="47" t="str">
         <f>_xlfn.CONCAT(B203:D203)</f>
         <v>rajkumarsharma</v>
       </c>
-      <c r="H203" s="51"/>
-      <c r="I203" s="51"/>
+      <c r="H203" s="47"/>
+      <c r="I203" s="47"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B204" s="4" t="s">
@@ -4120,9 +4153,9 @@
         <v>101</v>
       </c>
       <c r="D204" s="1"/>
-      <c r="G204" s="51"/>
-      <c r="H204" s="51"/>
-      <c r="I204" s="51"/>
+      <c r="G204" s="47"/>
+      <c r="H204" s="47"/>
+      <c r="I204" s="47"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B205" s="4" t="s">
@@ -4132,12 +4165,12 @@
       <c r="D205" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G205" s="51" t="str">
+      <c r="G205" s="47" t="str">
         <f>_xlfn.TEXTJOIN(" ",FALSE,B205:D205)</f>
         <v>abi  sharma</v>
       </c>
-      <c r="H205" s="51"/>
-      <c r="I205" s="51"/>
+      <c r="H205" s="47"/>
+      <c r="I205" s="47"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B206" s="4" t="s">
@@ -4149,12 +4182,12 @@
       <c r="D206" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G206" s="51" t="str">
+      <c r="G206" s="47" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,B206:D206)</f>
         <v>Ram - singh - dagar</v>
       </c>
-      <c r="H206" s="51"/>
-      <c r="I206" s="51"/>
+      <c r="H206" s="47"/>
+      <c r="I206" s="47"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B209" s="3" t="s">
@@ -4189,16 +4222,16 @@
       <c r="E210" s="1">
         <v>232323</v>
       </c>
-      <c r="G210" s="50" t="str">
+      <c r="G210" s="49" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,B210:E210)</f>
         <v>Delhi
 HR
 132102
 232323</v>
       </c>
-      <c r="H210" s="50"/>
-      <c r="I210" s="50"/>
-      <c r="J210" s="50"/>
+      <c r="H210" s="49"/>
+      <c r="I210" s="49"/>
+      <c r="J210" s="49"/>
     </row>
     <row r="211" spans="2:11" ht="21.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="4" t="s">
@@ -4213,16 +4246,16 @@
       <c r="E211" s="1">
         <v>232344</v>
       </c>
-      <c r="G211" s="50" t="str">
+      <c r="G211" s="49" t="str">
         <f t="shared" ref="G211:G212" si="11">_xlfn.TEXTJOIN(CHAR(10),TRUE,B211:E211)</f>
         <v>Pwl
 HR
 121102
 232344</v>
       </c>
-      <c r="H211" s="50"/>
-      <c r="I211" s="50"/>
-      <c r="J211" s="50"/>
+      <c r="H211" s="49"/>
+      <c r="I211" s="49"/>
+      <c r="J211" s="49"/>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B212" s="4" t="s">
@@ -4237,30 +4270,30 @@
       <c r="E212" s="1">
         <v>54344</v>
       </c>
-      <c r="G212" s="50" t="str">
+      <c r="G212" s="49" t="str">
         <f t="shared" si="11"/>
         <v>Fbd
 HR
 123203
 54344</v>
       </c>
-      <c r="H212" s="50"/>
-      <c r="I212" s="50"/>
-      <c r="J212" s="50"/>
+      <c r="H212" s="49"/>
+      <c r="I212" s="49"/>
+      <c r="J212" s="49"/>
     </row>
     <row r="215" spans="2:11" s="7" customFormat="1" ht="25.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B215" s="42" t="s">
+      <c r="B215" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C215" s="36"/>
-      <c r="D215" s="36"/>
-      <c r="E215" s="36"/>
-      <c r="F215" s="36"/>
-      <c r="G215" s="36"/>
-      <c r="H215" s="36"/>
-      <c r="I215" s="36"/>
-      <c r="J215" s="36"/>
-      <c r="K215" s="36"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="44"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="44"/>
+      <c r="G215" s="44"/>
+      <c r="H215" s="44"/>
+      <c r="I215" s="44"/>
+      <c r="J215" s="44"/>
+      <c r="K215" s="44"/>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C217" t="s">
@@ -4270,10 +4303,10 @@
         <v>123</v>
       </c>
       <c r="F217" s="5"/>
-      <c r="I217" s="52" t="s">
+      <c r="I217" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="J217" s="52"/>
+      <c r="J217" s="45"/>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B218" s="3" t="s">
@@ -4285,15 +4318,15 @@
       <c r="D218" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F218" s="47" t="s">
+      <c r="F218" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G218" s="47"/>
-      <c r="H218" s="37"/>
-      <c r="I218" s="48" t="s">
+      <c r="G218" s="36"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="J218" s="48"/>
+      <c r="J218" s="39"/>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B219" s="4" t="s">
@@ -4307,16 +4340,16 @@
         <f>RIGHT(B219,5)</f>
         <v>23423</v>
       </c>
-      <c r="F219" s="51" t="s">
+      <c r="F219" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G219" s="51"/>
-      <c r="H219" s="53"/>
-      <c r="I219" s="49" t="str">
+      <c r="G219" s="47"/>
+      <c r="H219" s="48"/>
+      <c r="I219" s="41" t="str">
         <f>MID(F219,7,9)</f>
         <v>011-32343</v>
       </c>
-      <c r="J219" s="49"/>
+      <c r="J219" s="41"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B220" s="4" t="s">
@@ -4330,16 +4363,16 @@
         <f t="shared" ref="D220:D222" si="13">RIGHT(B220,5)</f>
         <v>34222</v>
       </c>
-      <c r="F220" s="51" t="s">
+      <c r="F220" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G220" s="51"/>
-      <c r="H220" s="53"/>
-      <c r="I220" s="49" t="str">
+      <c r="G220" s="47"/>
+      <c r="H220" s="48"/>
+      <c r="I220" s="41" t="str">
         <f t="shared" ref="I220:I222" si="14">MID(F220,7,9)</f>
         <v>011-32343</v>
       </c>
-      <c r="J220" s="49"/>
+      <c r="J220" s="41"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B221" s="4" t="s">
@@ -4353,16 +4386,16 @@
         <f t="shared" si="13"/>
         <v>34343</v>
       </c>
-      <c r="F221" s="51" t="s">
+      <c r="F221" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G221" s="51"/>
-      <c r="H221" s="53"/>
-      <c r="I221" s="49" t="str">
+      <c r="G221" s="47"/>
+      <c r="H221" s="48"/>
+      <c r="I221" s="41" t="str">
         <f t="shared" si="14"/>
         <v>011-32343</v>
       </c>
-      <c r="J221" s="49"/>
+      <c r="J221" s="41"/>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B222" s="4" t="s">
@@ -4376,359 +4409,320 @@
         <f t="shared" si="13"/>
         <v>34432</v>
       </c>
-      <c r="F222" s="51" t="s">
+      <c r="F222" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="G222" s="51"/>
-      <c r="H222" s="53"/>
-      <c r="I222" s="49" t="str">
+      <c r="G222" s="47"/>
+      <c r="H222" s="48"/>
+      <c r="I222" s="41" t="str">
         <f t="shared" si="14"/>
         <v>011-32343</v>
       </c>
-      <c r="J222" s="49"/>
+      <c r="J222" s="41"/>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B225" s="47" t="s">
+      <c r="B225" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C225" s="47"/>
-      <c r="D225" s="37"/>
-      <c r="F225" s="48" t="s">
+      <c r="C225" s="36"/>
+      <c r="D225" s="46"/>
+      <c r="F225" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="G225" s="48"/>
-      <c r="H225" s="48" t="s">
+      <c r="G225" s="39"/>
+      <c r="H225" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="I225" s="48"/>
+      <c r="I225" s="39"/>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B226" s="46" t="s">
+      <c r="B226" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C226" s="46"/>
-      <c r="D226" s="46"/>
-      <c r="F226" s="46">
+      <c r="C226" s="40"/>
+      <c r="D226" s="40"/>
+      <c r="F226" s="40">
         <v>9823244433</v>
       </c>
-      <c r="G226" s="46"/>
-      <c r="H226" s="49" t="str">
+      <c r="G226" s="40"/>
+      <c r="H226" s="41" t="str">
         <f>LEFT(F226,3)&amp;"****"&amp;RIGHT(F226,3)</f>
         <v>982****433</v>
       </c>
-      <c r="I226" s="49"/>
+      <c r="I226" s="41"/>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B227" s="46" t="s">
+      <c r="B227" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C227" s="46"/>
-      <c r="D227" s="46"/>
-      <c r="F227" s="46">
+      <c r="C227" s="40"/>
+      <c r="D227" s="40"/>
+      <c r="F227" s="40">
         <v>9823244434</v>
       </c>
-      <c r="G227" s="46"/>
-      <c r="H227" s="49" t="str">
+      <c r="G227" s="40"/>
+      <c r="H227" s="41" t="str">
         <f t="shared" ref="H227:H229" si="15">LEFT(F227,3)&amp;"****"&amp;RIGHT(F227,3)</f>
         <v>982****434</v>
       </c>
-      <c r="I227" s="49"/>
+      <c r="I227" s="41"/>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B228" s="46" t="s">
+      <c r="B228" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C228" s="46"/>
-      <c r="D228" s="46"/>
-      <c r="F228" s="46">
+      <c r="C228" s="40"/>
+      <c r="D228" s="40"/>
+      <c r="F228" s="40">
         <v>9823244435</v>
       </c>
-      <c r="G228" s="46"/>
-      <c r="H228" s="49" t="str">
+      <c r="G228" s="40"/>
+      <c r="H228" s="41" t="str">
         <f t="shared" si="15"/>
         <v>982****435</v>
       </c>
-      <c r="I228" s="49"/>
+      <c r="I228" s="41"/>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B229" s="46" t="s">
+      <c r="B229" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C229" s="46"/>
-      <c r="D229" s="46"/>
-      <c r="F229" s="46">
+      <c r="C229" s="40"/>
+      <c r="D229" s="40"/>
+      <c r="F229" s="40">
         <v>9823244436</v>
       </c>
-      <c r="G229" s="46"/>
-      <c r="H229" s="49" t="str">
+      <c r="G229" s="40"/>
+      <c r="H229" s="41" t="str">
         <f t="shared" si="15"/>
         <v>982****436</v>
       </c>
-      <c r="I229" s="49"/>
+      <c r="I229" s="41"/>
     </row>
     <row r="231" spans="2:11" s="7" customFormat="1" ht="25.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B231" s="42" t="s">
+      <c r="B231" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C231" s="36"/>
-      <c r="D231" s="36"/>
-      <c r="E231" s="36"/>
-      <c r="F231" s="36"/>
-      <c r="G231" s="36"/>
-      <c r="H231" s="36"/>
-      <c r="I231" s="36"/>
-      <c r="J231" s="36"/>
-      <c r="K231" s="36"/>
+      <c r="C231" s="44"/>
+      <c r="D231" s="44"/>
+      <c r="E231" s="44"/>
+      <c r="F231" s="44"/>
+      <c r="G231" s="44"/>
+      <c r="H231" s="44"/>
+      <c r="I231" s="44"/>
+      <c r="J231" s="44"/>
+      <c r="K231" s="44"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B234" s="48" t="s">
+      <c r="B234" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C234" s="48"/>
-      <c r="D234" s="48" t="s">
+      <c r="C234" s="39"/>
+      <c r="D234" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E234" s="48"/>
+      <c r="E234" s="39"/>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B235" s="46">
+      <c r="B235" s="40">
         <v>9823244433</v>
       </c>
-      <c r="C235" s="46"/>
-      <c r="D235" s="49" t="str">
+      <c r="C235" s="40"/>
+      <c r="D235" s="41" t="str">
         <f>LEFT(B235,3)&amp;"***"&amp;RIGHT(B235,3)</f>
         <v>982***433</v>
       </c>
-      <c r="E235" s="49"/>
+      <c r="E235" s="41"/>
       <c r="G235" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D235)</f>
         <v>=LEFT(B235,3)&amp;"***"&amp;RIGHT(B235,3)</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B236" s="46">
+      <c r="B236" s="40">
         <v>9823244434</v>
       </c>
-      <c r="C236" s="46"/>
-      <c r="D236" s="49" t="str">
+      <c r="C236" s="40"/>
+      <c r="D236" s="41" t="str">
         <f t="shared" ref="D236" si="16">LEFT(B236,3)&amp;"***"&amp;RIGHT(B236,3)</f>
         <v>982***434</v>
       </c>
-      <c r="E236" s="49"/>
+      <c r="E236" s="41"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D238" s="55">
+      <c r="D238" s="42">
         <f ca="1">NOW()</f>
-        <v>45981.584745138891</v>
-      </c>
-      <c r="E238" s="55"/>
+        <v>45981.705818055554</v>
+      </c>
+      <c r="E238" s="42"/>
     </row>
     <row r="247" spans="2:11" s="7" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B247" s="42" t="s">
+      <c r="B247" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C247" s="36"/>
-      <c r="D247" s="36"/>
-      <c r="E247" s="36"/>
-      <c r="F247" s="36"/>
-      <c r="G247" s="36"/>
-      <c r="H247" s="36"/>
-      <c r="I247" s="36"/>
-      <c r="J247" s="36"/>
-      <c r="K247" s="36"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="44"/>
+      <c r="E247" s="44"/>
+      <c r="F247" s="44"/>
+      <c r="G247" s="44"/>
+      <c r="H247" s="44"/>
+      <c r="I247" s="44"/>
+      <c r="J247" s="44"/>
+      <c r="K247" s="44"/>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B250" s="25"/>
-      <c r="C250" s="47" t="s">
+      <c r="C250" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D250" s="47"/>
-      <c r="F250" s="48" t="s">
+      <c r="D250" s="36"/>
+      <c r="F250" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="G250" s="48"/>
-      <c r="H250" s="48"/>
-      <c r="I250" s="48"/>
+      <c r="G250" s="39"/>
+      <c r="H250" s="39"/>
+      <c r="I250" s="39"/>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B251" s="25"/>
-      <c r="C251" s="54">
+      <c r="C251" s="35">
         <v>43833</v>
       </c>
-      <c r="D251" s="54"/>
-      <c r="F251" s="54">
+      <c r="D251" s="35"/>
+      <c r="F251" s="35">
         <f>EDATE(C251,-3)</f>
         <v>43741</v>
       </c>
-      <c r="G251" s="54"/>
-      <c r="H251" s="54"/>
-      <c r="I251" s="54"/>
+      <c r="G251" s="35"/>
+      <c r="H251" s="35"/>
+      <c r="I251" s="35"/>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B252" s="25"/>
-      <c r="C252" s="54">
+      <c r="C252" s="35">
         <v>43835</v>
       </c>
-      <c r="D252" s="54"/>
-      <c r="F252" s="54"/>
-      <c r="G252" s="54"/>
-      <c r="H252" s="54"/>
-      <c r="I252" s="54"/>
+      <c r="D252" s="35"/>
+      <c r="F252" s="35"/>
+      <c r="G252" s="35"/>
+      <c r="H252" s="35"/>
+      <c r="I252" s="35"/>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B253" s="25"/>
-      <c r="C253" s="54">
+      <c r="C253" s="35">
         <v>43837</v>
       </c>
-      <c r="D253" s="54"/>
-      <c r="F253" s="54"/>
-      <c r="G253" s="54"/>
-      <c r="H253" s="54"/>
-      <c r="I253" s="54"/>
+      <c r="D253" s="35"/>
+      <c r="F253" s="35"/>
+      <c r="G253" s="35"/>
+      <c r="H253" s="35"/>
+      <c r="I253" s="35"/>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B254" s="25"/>
-      <c r="C254" s="54">
+      <c r="C254" s="35">
         <v>43831</v>
       </c>
-      <c r="D254" s="54"/>
-      <c r="F254" s="54"/>
-      <c r="G254" s="54"/>
-      <c r="H254" s="54"/>
-      <c r="I254" s="54"/>
+      <c r="D254" s="35"/>
+      <c r="F254" s="35"/>
+      <c r="G254" s="35"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="35"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B255" s="25"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="40"/>
+      <c r="C255" s="38"/>
+      <c r="D255" s="38"/>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B256" s="25"/>
-      <c r="C256" s="40"/>
-      <c r="D256" s="40"/>
+      <c r="C256" s="38"/>
+      <c r="D256" s="38"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B257" s="25"/>
-      <c r="C257" s="47" t="s">
+      <c r="C257" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D257" s="47"/>
-      <c r="F257" s="47" t="s">
+      <c r="D257" s="36"/>
+      <c r="F257" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G257" s="47"/>
+      <c r="G257" s="36"/>
       <c r="I257" s="26"/>
       <c r="J257" s="26"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C258" s="54">
+      <c r="C258" s="35">
         <v>43833</v>
       </c>
-      <c r="D258" s="54"/>
-      <c r="F258" s="54">
+      <c r="D258" s="35"/>
+      <c r="F258" s="35">
         <f>EOMONTH(C258,2)</f>
         <v>43921</v>
       </c>
-      <c r="G258" s="54"/>
+      <c r="G258" s="35"/>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C259" s="54">
+      <c r="C259" s="35">
         <v>43866</v>
       </c>
-      <c r="D259" s="54"/>
-      <c r="F259" s="54"/>
-      <c r="G259" s="54"/>
-      <c r="I259" s="56"/>
-      <c r="J259" s="56"/>
+      <c r="D259" s="35"/>
+      <c r="F259" s="35"/>
+      <c r="G259" s="35"/>
+      <c r="I259" s="37"/>
+      <c r="J259" s="37"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C260" s="54">
+      <c r="C260" s="35">
         <v>43837</v>
       </c>
-      <c r="D260" s="54"/>
-      <c r="F260" s="54"/>
-      <c r="G260" s="54"/>
+      <c r="D260" s="35"/>
+      <c r="F260" s="35"/>
+      <c r="G260" s="35"/>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C261" s="54">
+      <c r="C261" s="35">
         <v>43831</v>
       </c>
-      <c r="D261" s="54"/>
-      <c r="F261" s="54"/>
-      <c r="G261" s="54"/>
+      <c r="D261" s="35"/>
+      <c r="F261" s="35"/>
+      <c r="G261" s="35"/>
       <c r="I261" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="B55:G64" xr:uid="{15791976-F3D5-4431-901D-D5B96807BCA4}"/>
   <mergeCells count="116">
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="F251:I251"/>
-    <mergeCell ref="F252:I252"/>
-    <mergeCell ref="F253:I253"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="I259:J259"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="F250:I250"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="B247:K247"/>
-    <mergeCell ref="I221:J221"/>
-    <mergeCell ref="I222:J222"/>
-    <mergeCell ref="I217:J217"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="F218:H218"/>
-    <mergeCell ref="F219:H219"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="F221:H221"/>
-    <mergeCell ref="F222:H222"/>
-    <mergeCell ref="I218:J218"/>
-    <mergeCell ref="I219:J219"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="B231:K231"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="G211:J211"/>
-    <mergeCell ref="G212:J212"/>
-    <mergeCell ref="B215:K215"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G210:J210"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="B120:K120"/>
+    <mergeCell ref="B137:K137"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
     <mergeCell ref="B181:K181"/>
     <mergeCell ref="B198:K198"/>
     <mergeCell ref="B183:D183"/>
@@ -4748,35 +4742,74 @@
     <mergeCell ref="A151:M151"/>
     <mergeCell ref="A152:M152"/>
     <mergeCell ref="A155:M155"/>
-    <mergeCell ref="B120:K120"/>
-    <mergeCell ref="B137:K137"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B69:K69"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="B86:K86"/>
-    <mergeCell ref="B103:K103"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G211:J211"/>
+    <mergeCell ref="G212:J212"/>
+    <mergeCell ref="B215:K215"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G210:J210"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B231:K231"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="I221:J221"/>
+    <mergeCell ref="I222:J222"/>
+    <mergeCell ref="I217:J217"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="F219:H219"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="F221:H221"/>
+    <mergeCell ref="F222:H222"/>
+    <mergeCell ref="I218:J218"/>
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="F250:I250"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B247:K247"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="F251:I251"/>
+    <mergeCell ref="F252:I252"/>
+    <mergeCell ref="F253:I253"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -4803,51 +4836,51 @@
   <sheetFormatPr defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="F10" t="str">
         <f>LEFT(B10,FIND(" ",B10)-1)</f>
         <v>011</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="F11" t="str">
         <f t="shared" ref="F11:F13" si="0">LEFT(B11,FIND("-",B11)-1)</f>
         <v xml:space="preserve">01274 </v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">91 </v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">0112 </v>
